--- a/teaching/traditional_assets/database/data/estonia/estonia_beverage_alcoholic.xlsx
+++ b/teaching/traditional_assets/database/data/estonia/estonia_beverage_alcoholic.xlsx
@@ -590,41 +590,47 @@
           <t>Beverage (Alcoholic)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>-0.0196</v>
+      </c>
+      <c r="E2">
+        <v>-0.358</v>
+      </c>
       <c r="G2">
-        <v>0.1995884773662552</v>
+        <v>0.1484962406015038</v>
       </c>
       <c r="H2">
-        <v>0.191358024691358</v>
+        <v>0.1379699248120301</v>
       </c>
       <c r="I2">
-        <v>-0.01152263374485597</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="J2">
-        <v>-0.01152263374485597</v>
+        <v>0.007962529274004683</v>
       </c>
       <c r="K2">
-        <v>-0.053</v>
+        <v>0.034</v>
       </c>
       <c r="L2">
-        <v>-0.02181069958847736</v>
+        <v>0.01278195488721805</v>
       </c>
       <c r="M2">
-        <v>0.143</v>
+        <v>0.142</v>
       </c>
       <c r="N2">
-        <v>0.01956224350205198</v>
+        <v>0.009793103448275862</v>
       </c>
       <c r="O2">
-        <v>-2.69811320754717</v>
+        <v>4.176470588235293</v>
       </c>
       <c r="P2">
-        <v>0.143</v>
+        <v>0.142</v>
       </c>
       <c r="Q2">
-        <v>0.01956224350205198</v>
+        <v>0.009793103448275862</v>
       </c>
       <c r="R2">
-        <v>-2.69811320754717</v>
+        <v>4.176470588235293</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,31 +639,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.979</v>
+        <v>0.784</v>
       </c>
       <c r="V2">
-        <v>0.1339261285909713</v>
+        <v>0.05406896551724138</v>
       </c>
       <c r="W2">
-        <v>-0.01159737417943107</v>
+        <v>0.007962529274004685</v>
       </c>
       <c r="X2">
-        <v>0.0663866709248228</v>
+        <v>0.04895538255292466</v>
       </c>
       <c r="Y2">
-        <v>-0.07798404510425387</v>
+        <v>-0.04099285327891997</v>
       </c>
       <c r="Z2">
-        <v>0.6785814018430606</v>
+        <v>0.808264965056214</v>
       </c>
       <c r="AA2">
-        <v>-0.007819044959508517</v>
+        <v>0.006435833445412477</v>
       </c>
       <c r="AB2">
-        <v>0.0663866709248228</v>
+        <v>0.04895538255292466</v>
       </c>
       <c r="AC2">
-        <v>-0.07420571588433131</v>
+        <v>-0.04251954910751218</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -669,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.979</v>
+        <v>-0.784</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -678,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.1546359184962881</v>
+        <v>-0.05715952172645086</v>
       </c>
       <c r="AK2">
-        <v>-0.2974779702218171</v>
+        <v>-0.2350119904076738</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -693,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-2.255760368663594</v>
+        <v>-1.708061002178649</v>
       </c>
     </row>
     <row r="3">
@@ -704,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AS Linda Nektar (TLSE:LINDA)</t>
+          <t>aktsiaselts Linda Nektar (TLSE:LINDA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -712,41 +718,47 @@
           <t>Beverage (Alcoholic)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.0196</v>
+      </c>
+      <c r="E3">
+        <v>-0.358</v>
+      </c>
       <c r="G3">
-        <v>0.1995884773662552</v>
+        <v>0.1484962406015038</v>
       </c>
       <c r="H3">
-        <v>0.191358024691358</v>
+        <v>0.1379699248120301</v>
       </c>
       <c r="I3">
-        <v>-0.01152263374485597</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="J3">
-        <v>-0.01152263374485597</v>
+        <v>0.007962529274004683</v>
       </c>
       <c r="K3">
-        <v>-0.053</v>
+        <v>0.034</v>
       </c>
       <c r="L3">
-        <v>-0.02181069958847736</v>
+        <v>0.01278195488721805</v>
       </c>
       <c r="M3">
-        <v>0.143</v>
+        <v>0.142</v>
       </c>
       <c r="N3">
-        <v>0.01956224350205198</v>
+        <v>0.009793103448275862</v>
       </c>
       <c r="O3">
-        <v>-2.69811320754717</v>
+        <v>4.176470588235293</v>
       </c>
       <c r="P3">
-        <v>0.143</v>
+        <v>0.142</v>
       </c>
       <c r="Q3">
-        <v>0.01956224350205198</v>
+        <v>0.009793103448275862</v>
       </c>
       <c r="R3">
-        <v>-2.69811320754717</v>
+        <v>4.176470588235293</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -755,31 +767,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.979</v>
+        <v>0.784</v>
       </c>
       <c r="V3">
-        <v>0.1339261285909713</v>
+        <v>0.05406896551724138</v>
       </c>
       <c r="W3">
-        <v>-0.01159737417943107</v>
+        <v>0.007962529274004685</v>
       </c>
       <c r="X3">
-        <v>0.0663866709248228</v>
+        <v>0.04895538255292466</v>
       </c>
       <c r="Y3">
-        <v>-0.07798404510425387</v>
+        <v>-0.04099285327891997</v>
       </c>
       <c r="Z3">
-        <v>0.6785814018430606</v>
+        <v>0.808264965056214</v>
       </c>
       <c r="AA3">
-        <v>-0.007819044959508517</v>
+        <v>0.006435833445412477</v>
       </c>
       <c r="AB3">
-        <v>0.0663866709248228</v>
+        <v>0.04895538255292466</v>
       </c>
       <c r="AC3">
-        <v>-0.07420571588433131</v>
+        <v>-0.04251954910751218</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -791,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.979</v>
+        <v>-0.784</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -800,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.1546359184962881</v>
+        <v>-0.05715952172645086</v>
       </c>
       <c r="AK3">
-        <v>-0.2974779702218171</v>
+        <v>-0.2350119904076738</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -815,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-2.255760368663594</v>
+        <v>-1.708061002178649</v>
       </c>
     </row>
   </sheetData>
